--- a/21130445_HuynhNgocQuangMinh_Q&A.xlsx
+++ b/21130445_HuynhNgocQuangMinh_Q&A.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Something\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Testing\Software_Testing_Group19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE1EC4E-FB58-4E10-AD7B-32A75ADDEADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB39154-A77B-4C8F-9134-321A0F041D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21130445_Q&amp;A_QuanLySanPham_EN" sheetId="6" r:id="rId1"/>
-    <sheet name="21130445_Q&amp;A_QuanLySanPham_VN" sheetId="9" r:id="rId2"/>
+    <sheet name="21130445_Q&amp;A_QuanLySanPham_VN" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -172,100 +171,13 @@
   </si>
   <si>
     <t>Đồng ý, việc thay đổi form linh hoạt theo ngành hàng sẽ giúp người dùng nhập thông tin phù hợp hơn. Chúng tôi sẽ xem xét bổ sung tính năng này để cải thiện trải nghiệm người dùng. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>Add Product</t>
-  </si>
-  <si>
-    <t>In the form for adding basic information, when users want to upload an image, they have two options: a 1:1 ratio or a 3:4 ratio. However, I don't see any guidance or explanation about the differences between these ratios to help users make an informed choice. I think it would be helpful to have a button next to the options that users can click to display the guidance. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, adding a small guide in the form of a tooltip or a button next to the image ratio options would help users better understand the differences between these choices. We will consider adding an icon that allows users to quickly access the explanation or notification. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>Add Information product</t>
-  </si>
-  <si>
-    <t>Basic Information product</t>
-  </si>
-  <si>
-    <t>Yes, the current product input interface has many required fields, which can be challenging for new users. We will consider adding a small guide or checklist next to the fields or on the side to help users easily follow the system's requirements. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>In the product information input interface, there are too many attribute fields with various conditions, which can confuse first-time users. I think adding a small guide or checklist next to the form would help users easily follow along. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Add image</t>
-  </si>
-  <si>
-    <t>In the product information input interface, only jpg, jpeg, and png file formats are supported for image uploads. But what will happen if users try to upload a file with a different format? I think there should be a popup notification informing users of the incorrect file format. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Yes, when users upload a file with an invalid format, a warning popup should be displayed. This will help prevent unwanted errors and improve the user experience when entering product information. We will consider implementing this feature to best support our users. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>Add video</t>
-  </si>
-  <si>
-    <t>In the step for adding a video to the product, there are constraints such as a maximum size of 30MB, a resolution not exceeding 1280x1280px, and a length of 10s to 60s. But what will happen if users upload a video that does not comply with these rules? I think we should allow users to edit the video directly on the website to meet the requirements, enhancing the user experience. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Your suggestion is very helpful. Instead of only notifying users of an error when uploading an invalid video, we will consider adding a feature that allows users to edit the video directly on the website to comply with size and length requirements. This will significantly improve the user experience while minimizing errors during the upload process. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>Add delivery information</t>
-  </si>
-  <si>
-    <t>In the step for adding packaging weight and dimensions, what happens if the product has variants with different sizes and weights? I think there should be an option to set weight and dimensions for each variant. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>This proposal makes sense. We will consider adding an option for users to set individual weight and dimensions for each product variant. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>See list products</t>
-  </si>
-  <si>
-    <t>In the product list screen of the shop, while basic information about the products is displayed, it would be convenient for shop management if products were automatically evaluated by the system. I think there should be an additional quality assessment to provide feedback on whether the product listings need improvement and what specific improvements are necessary for better posts. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, adding a content quality assessment feature will help the shop improve their listings. We will consider implementing this feature. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>The system currently has the feature to add one product at a time, but what if users have a bulk of products that need to be uploaded quickly? I think there should be an option for bulk product uploads. Users could download a template, fill it out according to the specified format, and then upload it for the system to process automatically. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, this feature will help users save time when uploading multiple products. We will consider adding this functionality, including support for a template for bulk uploads. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>In the shop's product list screen, by default, each product is displayed in a detailed vertical view, including all variants, which makes it hard to read. I think there should be a toggle option to switch to a buyer's view, displaying concise information for each product so that shops can quickly review multiple products at once. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, adding a streamlined view will help shops manage their product lists more easily. We will consider implementing this feature. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>The system currently has a product inventory feature, but there are no reminders for low stock levels. I think users should have the option to enable notifications for low inventory when it falls below a certain threshold, allowing shops to proactively restock. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, this feature will help shops proactively manage their inventory. We will consider adding this optional reminder function. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>In the product detail information interface, the current information form is fixed. I think it should be flexible and change based on the category selected in the "Basic Information" step to better suit each type of category. Do you think this is the right approach? Please confirm.</t>
-  </si>
-  <si>
-    <t>Agreed, having a flexible form that changes based on the category will help users input more relevant information. We will consider adding this feature to improve the user experience. (21130451 - Nguyễn Thị Chúc Ngân)</t>
-  </si>
-  <si>
-    <t>SRS - Product Management</t>
-  </si>
-  <si>
-    <t>Product Management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -282,20 +194,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -334,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -343,15 +241,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,440 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD53DE9-1616-4ABC-9FE6-E801B68CD8A4}">
-  <dimension ref="A1:O11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" ht="61.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA40DBF3-E740-4E89-BF2D-D7E3B0A9E85A}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
